--- a/DATA/Grades/Second Year/2nd Year/1st Sem/BSIT 2C_IT203.xlsx
+++ b/DATA/Grades/Second Year/2nd Year/1st Sem/BSIT 2C_IT203.xlsx
@@ -1538,7 +1538,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1566,7 +1566,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1599,7 +1599,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1627,7 +1627,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1655,7 +1655,7 @@
     <xdr:ext cx="857250" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1683,7 +1683,7 @@
     <xdr:ext cx="838200" cy="600075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
